--- a/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/25_Workflow.xlsx
+++ b/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/25_Workflow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Workflow" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Parameters!$A$1:$E$36</definedName>
   </definedNames>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="85">
   <si>
     <t>Action</t>
   </si>
@@ -337,9 +337,6 @@
     <t>weightMainAttribute</t>
   </si>
   <si>
-    <t>ALL</t>
-  </si>
-  <si>
     <t>A_PuntoDiPrelievo</t>
   </si>
   <si>
@@ -401,6 +398,85 @@
   </si>
   <si>
     <t>IMP_TOT_PRELEVATO_Mix</t>
+  </si>
+  <si>
+    <t>QuantiliPrelevato</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>writeQuantileSeriesToTimeseriesAttribute (ForecasterLibrary)</t>
+  </si>
+  <si>
+    <t>Param1</t>
+  </si>
+  <si>
+    <t>PUNTI DI PRELIEVO</t>
+  </si>
+  <si>
+    <t>Param2</t>
+  </si>
+  <si>
+    <t>Param3</t>
+  </si>
+  <si>
+    <t>Param4</t>
+  </si>
+  <si>
+    <t>1;2;5;95;98;99</t>
+  </si>
+  <si>
+    <t>Param5</t>
+  </si>
+  <si>
+    <t>QuantilePrelevato1;QuantilePrelevato2;QuantilePrelevato3;QuantilePrelevato95;QuantilePrelevato98;QuantilePrelevato99</t>
+  </si>
+  <si>
+    <t>Param6</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>QuantiliPrelevatoAggr</t>
+  </si>
+  <si>
+    <t>PrelevatoAggr</t>
+  </si>
+  <si>
+    <t>QuantiliVersamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QuantileVersamento1;QuantileVersamento2;QuantileVersamento5;QuantileVersamento95;QuantileVersamento98;QuantileVersamento99
+</t>
+  </si>
+  <si>
+    <t>QuantilePrelevato1;QuantilePrelevato2;QuantilePrelevato5;QuantilePrelevato95;QuantilePrelevato98;QuantilePrelevato99</t>
+  </si>
+  <si>
+    <t>Step 9</t>
+  </si>
+  <si>
+    <t>Step 10</t>
+  </si>
+  <si>
+    <t>Step 11</t>
+  </si>
+  <si>
+    <t>Step 12</t>
+  </si>
+  <si>
+    <t>Export PuntidiPrelievo TS</t>
+  </si>
+  <si>
+    <t>Aggregate ID</t>
+  </si>
+  <si>
+    <t>startDate</t>
+  </si>
+  <si>
+    <t>endDate</t>
   </si>
 </sst>
 </file>
@@ -598,7 +674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -663,6 +739,9 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -917,6 +996,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9563100"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9534525"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -932,7 +1107,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -975,7 +1150,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1023,7 +1198,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1071,7 +1246,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1119,7 +1294,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1133,6 +1308,102 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="10372725" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10372725" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10372725" cy="9496425"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1397,6 +1668,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9467850"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1605,6 +1972,102 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1903,10 +2366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1930,6 +2393,30 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1939,10 +2426,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1978,22 +2465,22 @@
         <v>8</v>
       </c>
       <c r="I1" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="21" t="s">
-        <v>42</v>
-      </c>
       <c r="K1" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="21" t="s">
-        <v>42</v>
-      </c>
       <c r="M1" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="21" t="s">
         <v>41</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -2035,7 +2522,7 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -2085,13 +2572,13 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -2099,14 +2586,142 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
-      </c>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+    </row>
+    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2117,10 +2732,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2167,7 +2782,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -2181,10 +2796,10 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2198,7 +2813,7 @@
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2212,7 +2827,7 @@
         <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2226,7 +2841,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2290,7 +2905,7 @@
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2304,7 +2919,7 @@
         <v>29</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2318,7 +2933,7 @@
         <v>30</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2382,7 +2997,7 @@
         <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2396,7 +3011,7 @@
         <v>29</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2410,7 +3025,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2488,7 +3103,7 @@
         <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2496,10 +3111,10 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
         <v>27</v>
@@ -2510,13 +3125,13 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2524,13 +3139,13 @@
         <v>14</v>
       </c>
       <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
         <v>51</v>
       </c>
-      <c r="C30" t="s">
-        <v>52</v>
-      </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2538,13 +3153,13 @@
         <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -2552,49 +3167,49 @@
         <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" t="s">
         <v>54</v>
       </c>
-      <c r="D32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D33" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" t="s">
-        <v>56</v>
-      </c>
       <c r="D34" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
         <v>33</v>
@@ -2603,18 +3218,570 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="26"/>
+    </row>
+    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="26"/>
+    </row>
+    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="26"/>
+    </row>
+    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="26"/>
+    </row>
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="26"/>
+    </row>
+    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="26"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D74" s="1">
+        <v>-365</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/25_Workflow.xlsx
+++ b/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/25_Workflow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Workflow" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Global Variables" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Parameters!$A$1:$E$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Parameters!$A$1:$E$75</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -1092,6 +1092,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9534525"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9534525"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1428,6 +1524,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10372725" cy="9458325"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10372725" cy="9458325"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1732,6 +1924,102 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9467850"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9467850"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2100,6 +2388,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2428,8 +2812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2734,8 +3118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>

--- a/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/25_Workflow.xlsx
+++ b/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/25_Workflow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Workflow" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Global Variables" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Parameters!$A$1:$E$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Parameters!$A$1:$E$92</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="100">
   <si>
     <t>Action</t>
   </si>
@@ -477,6 +477,51 @@
   </si>
   <si>
     <t>endDate</t>
+  </si>
+  <si>
+    <t>Step 13</t>
+  </si>
+  <si>
+    <t>[Core] RefreshAggregateByType</t>
+  </si>
+  <si>
+    <t>Step 3 TSLength</t>
+  </si>
+  <si>
+    <t>Step 3 PRC_AVAILABILITY</t>
+  </si>
+  <si>
+    <t>Step 3 PRC_LIVELLO_SERVIZIO</t>
+  </si>
+  <si>
+    <t>TSLength</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PRC_AVAILABILITY</t>
+  </si>
+  <si>
+    <t>Step 4 Refresh aggregati</t>
+  </si>
+  <si>
+    <t>[Forecaster] TopDownAggregateEstimation</t>
+  </si>
+  <si>
+    <t>Step 4 Stima a monte per il prelevato</t>
+  </si>
+  <si>
+    <t>Evaluation date</t>
+  </si>
+  <si>
+    <t>[Forecaster] BottomUpAggregateEstimation</t>
+  </si>
+  <si>
+    <t>Step 4 Stima a valle  per il prelevato</t>
+  </si>
+  <si>
+    <t>Step 4 Stima a valle  per il versamento</t>
+  </si>
+  <si>
+    <t>Workflow_PuntiDiprelievo_light</t>
   </si>
 </sst>
 </file>
@@ -1188,6 +1233,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9534525"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1203,7 +1296,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1246,7 +1339,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1294,7 +1387,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1342,7 +1435,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1390,7 +1483,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1438,7 +1531,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1486,7 +1579,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1534,7 +1627,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1582,12 +1675,60 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10372725" cy="9458325"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1635,7 +1776,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1678,7 +1819,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1726,7 +1867,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1774,7 +1915,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1822,7 +1963,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1870,7 +2011,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1918,7 +2059,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1966,7 +2107,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2014,12 +2155,60 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9467850"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2484,6 +2673,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2750,10 +2987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2801,6 +3038,14 @@
         <v>74</v>
       </c>
     </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2810,16 +3055,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="30" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" style="1" customWidth="1"/>
+    <col min="4" max="4" width="56.7109375" style="1" customWidth="1"/>
     <col min="5" max="8" width="30" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2895,200 +3142,208 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="4" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="26" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
         <v>48</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="26" t="s">
+    <row r="16" spans="1:14" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="26" t="s">
         <v>77</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-    </row>
-    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-    </row>
-    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>15</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>60</v>
@@ -3096,16 +3351,302 @@
       <c r="D16" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
+    </row>
+    <row r="17" spans="1:14" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+    </row>
+    <row r="21" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+    </row>
+    <row r="22" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3116,15 +3657,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="30" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="30" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -3158,958 +3701,968 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="3" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
+    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="26" t="s">
         <v>59</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="E37" s="26"/>
-    </row>
-    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="26"/>
-    </row>
-    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="26"/>
-    </row>
-    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E40" s="26"/>
-    </row>
-    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" s="26"/>
-    </row>
-    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E42" s="26"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D47" s="26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B52" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D52" s="26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B53" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="26" t="s">
-        <v>74</v>
       </c>
       <c r="B54" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C54" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" s="26"/>
+    </row>
+    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" s="26"/>
+    </row>
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E56" s="26"/>
+    </row>
+    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E57" s="26"/>
+    </row>
+    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="26"/>
+    </row>
+    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D54" s="26" t="s">
+      <c r="D59" s="26" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B55" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" s="26" t="s">
+      <c r="E59" s="26"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D55" s="26" t="s">
+      <c r="D60" s="26" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B56" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" s="26" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D56" s="26" t="s">
+      <c r="D61" s="26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" s="26" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D57" s="26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" s="26" t="s">
+      <c r="D62" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D58" s="26" t="s">
+      <c r="D63" s="26" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" s="26" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D59" s="26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B60" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D60" s="26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B63" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C63" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D63" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B64" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>66</v>
-      </c>
       <c r="D64" s="26" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="26" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="26" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="26" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="26" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="26" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="26" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="26" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -4117,13 +4670,13 @@
         <v>14</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -4131,13 +4684,13 @@
         <v>14</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -4145,13 +4698,13 @@
         <v>14</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="D74" s="1">
-        <v>-365</v>
+        <v>65</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -4159,13 +4712,809 @@
         <v>14</v>
       </c>
       <c r="B75" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D81" s="26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C82" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C84" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D84" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C85" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D85" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C86" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D86" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C87" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D87" s="26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C88" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C89" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D89" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="C75" s="26" t="s">
+      <c r="C90" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C91" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D91" s="1">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C92" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="D75" s="1">
-        <v>0</v>
+      <c r="D92" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D94" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D95" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D96" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D97" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D98" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D99" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D100" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C101" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B102" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C102" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B103" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C103" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D103" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B104" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C104" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D104" s="26"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B105" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C105" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D105" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B106" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C106" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B107" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C107" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D107" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B108" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C108" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D108" s="26"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B109" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C109" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D109" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B110" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C110" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B111" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C111" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D111" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B112" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C112" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D112" s="26"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B113" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C113" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D113" s="26"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B114" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C114" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D114" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B115" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C115" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D115" s="26"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B116" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C116" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D116" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B117" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C117" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B118" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C118" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D118" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B119" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C119" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D119" s="26"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B120" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C120" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D120" s="26"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B121" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C121" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D121" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B122" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C122" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D122" s="26"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B123" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C123" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D123" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B124" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C124" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D124" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B125" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C125" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D125" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B126" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C126" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D126" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B127" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C127" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D127" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B128" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C128" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D128" s="26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B129" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C129" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B130" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C130" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D130" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B131" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C131" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B132" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C132" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D132" s="1">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B133" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C133" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D133" s="1">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/25_Workflow.xlsx
+++ b/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/25_Workflow.xlsx
@@ -18,9 +18,9 @@
     <sheet name="Global Variables" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Parameters!$A$1:$E$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Parameters!$A$1:$E$137</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="105">
   <si>
     <t>Action</t>
   </si>
@@ -522,6 +522,21 @@
   </si>
   <si>
     <t>Workflow_PuntiDiprelievo_light</t>
+  </si>
+  <si>
+    <t>[Core] UpdateFormulasForInstancesInAggregateInstanceParallelOptimized</t>
+  </si>
+  <si>
+    <t>entityTypeAggrName</t>
+  </si>
+  <si>
+    <t>instanceAggrId</t>
+  </si>
+  <si>
+    <t>fieldsToRefresh</t>
+  </si>
+  <si>
+    <t>PRC_AVAILABILITY</t>
   </si>
 </sst>
 </file>
@@ -719,7 +734,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -787,6 +802,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1257,6 +1273,54 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="9525000" cy="9534525"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1761,6 +1825,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11601450" cy="9458325"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1776,7 +1888,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1819,7 +1931,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1867,7 +1979,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1915,7 +2027,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1963,7 +2075,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2011,7 +2123,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2059,7 +2171,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2107,7 +2219,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2155,7 +2267,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2203,7 +2315,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2217,6 +2329,54 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="9525000" cy="9467850"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9820275" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2721,6 +2881,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3057,8 +3265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:D15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -3066,7 +3274,7 @@
     <col min="1" max="1" width="30" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" style="1" customWidth="1"/>
-    <col min="4" max="4" width="56.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="68.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="30" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3171,7 +3379,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -3189,7 +3397,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -3519,7 +3727,7 @@
         <v>16</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -3533,7 +3741,7 @@
         <v>16</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -3657,10 +3865,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -3739,10 +3947,10 @@
         <v>88</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>27</v>
+        <v>101</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -3754,10 +3962,10 @@
         <v>88</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -3766,13 +3974,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -3780,14 +3988,14 @@
       <c r="A8" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="23" t="s">
         <v>89</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>47</v>
+        <v>101</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -3795,14 +4003,14 @@
       <c r="A9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>92</v>
+      <c r="B9" s="23" t="s">
+        <v>89</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -3810,14 +4018,14 @@
       <c r="A10" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>94</v>
+      <c r="B10" s="23" t="s">
+        <v>89</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -3826,12 +4034,12 @@
         <v>14</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E11" s="1"/>
@@ -3844,10 +4052,10 @@
         <v>94</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>39</v>
+        <v>28</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>63</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -3859,7 +4067,10 @@
         <v>94</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>95</v>
+        <v>29</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -3868,13 +4079,13 @@
         <v>14</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>63</v>
+        <v>30</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -3883,13 +4094,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -3901,10 +4109,10 @@
         <v>97</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>39</v>
+        <v>28</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>63</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -3916,7 +4124,10 @@
         <v>97</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>95</v>
+        <v>29</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -3925,13 +4136,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>63</v>
+        <v>30</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -3940,13 +4151,10 @@
         <v>14</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -3958,10 +4166,10 @@
         <v>98</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>42</v>
+        <v>28</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>63</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -3973,37 +4181,39 @@
         <v>98</v>
       </c>
       <c r="C21" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -4012,11 +4222,11 @@
       <c r="B24" t="s">
         <v>22</v>
       </c>
-      <c r="C24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>39</v>
+      <c r="C24" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -4026,10 +4236,12 @@
       <c r="B25" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25"/>
+      <c r="C25" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -4038,10 +4250,12 @@
       <c r="B26" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26"/>
+      <c r="C26" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -4050,12 +4264,10 @@
       <c r="B27" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="1">
-        <v>10</v>
-      </c>
+      <c r="C27" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -4064,8 +4276,8 @@
       <c r="B28" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="23" t="s">
-        <v>34</v>
+      <c r="C28" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="D28"/>
     </row>
@@ -4074,13 +4286,13 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" t="s">
-        <v>63</v>
+        <v>22</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -4088,14 +4300,12 @@
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -4104,11 +4314,11 @@
       <c r="B31" t="s">
         <v>23</v>
       </c>
-      <c r="C31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>42</v>
+      <c r="C31" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -4118,10 +4328,12 @@
       <c r="B32" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32"/>
+      <c r="C32" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -4130,10 +4342,12 @@
       <c r="B33" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33"/>
+      <c r="C33" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -4142,12 +4356,10 @@
       <c r="B34" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="1">
-        <v>10</v>
-      </c>
+      <c r="C34" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -4156,8 +4368,8 @@
       <c r="B35" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="23" t="s">
-        <v>34</v>
+      <c r="C35" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="D35"/>
     </row>
@@ -4166,13 +4378,13 @@
         <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" t="s">
-        <v>63</v>
+        <v>23</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -4180,14 +4392,12 @@
         <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
@@ -4196,11 +4406,11 @@
       <c r="B38" t="s">
         <v>25</v>
       </c>
-      <c r="C38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>39</v>
+      <c r="C38" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -4210,10 +4420,12 @@
       <c r="B39" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39"/>
+      <c r="C39" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
@@ -4222,10 +4434,12 @@
       <c r="B40" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40"/>
+      <c r="C40" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
@@ -4234,12 +4448,10 @@
       <c r="B41" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" s="1">
-        <v>10</v>
-      </c>
+      <c r="C41" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
@@ -4248,8 +4460,8 @@
       <c r="B42" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="23" t="s">
-        <v>34</v>
+      <c r="C42" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="D42"/>
     </row>
@@ -4260,11 +4472,11 @@
       <c r="B43" t="s">
         <v>25</v>
       </c>
-      <c r="C43" t="s">
-        <v>35</v>
-      </c>
-      <c r="D43" t="s">
-        <v>36</v>
+      <c r="C43" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -4274,53 +4486,51 @@
       <c r="B44" t="s">
         <v>25</v>
       </c>
-      <c r="C44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" t="s">
-        <v>47</v>
-      </c>
+      <c r="C44" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" t="s">
-        <v>51</v>
+        <v>25</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>35</v>
       </c>
       <c r="D45" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="26" t="s">
-        <v>48</v>
+      <c r="B46" t="s">
+        <v>25</v>
       </c>
       <c r="C46" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="D46" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" t="s">
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D47" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -4331,10 +4541,10 @@
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -4345,10 +4555,10 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>55</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
+      </c>
+      <c r="D49" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -4359,10 +4569,10 @@
         <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" s="1">
-        <v>10</v>
+        <v>54</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -4373,69 +4583,67 @@
         <v>48</v>
       </c>
       <c r="C51" t="s">
-        <v>56</v>
-      </c>
-      <c r="D51" s="1">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>14</v>
       </c>
-      <c r="B52" t="s">
-        <v>50</v>
+      <c r="B52" s="26" t="s">
+        <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>45</v>
-      </c>
-      <c r="D52" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="D52" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>14</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s">
         <v>50</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" t="s">
         <v>46</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D55" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D54" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="E54" s="26"/>
-    </row>
-    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B55" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D55" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E55" s="26"/>
     </row>
     <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="26" t="s">
@@ -4445,10 +4653,10 @@
         <v>15</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="E56" s="26"/>
     </row>
@@ -4460,10 +4668,10 @@
         <v>15</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="E57" s="26"/>
     </row>
@@ -4475,10 +4683,10 @@
         <v>15</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="E58" s="26"/>
     </row>
@@ -4490,40 +4698,42 @@
         <v>15</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E59" s="26"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="26" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B60" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="E60" s="26"/>
+    </row>
+    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B61" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>38</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="E61" s="26"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="26" t="s">
@@ -4533,10 +4743,10 @@
         <v>15</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D62" s="22" t="s">
-        <v>73</v>
+        <v>62</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -4547,10 +4757,10 @@
         <v>15</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -4561,10 +4771,10 @@
         <v>15</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D64" s="26" t="s">
-        <v>76</v>
+        <v>65</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -4575,38 +4785,38 @@
         <v>15</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B66" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B67" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -4617,10 +4827,10 @@
         <v>15</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -4631,10 +4841,10 @@
         <v>15</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -4645,10 +4855,10 @@
         <v>15</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -4659,38 +4869,38 @@
         <v>15</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="26" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="26" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -4701,10 +4911,10 @@
         <v>77</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -4715,10 +4925,10 @@
         <v>77</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -4729,10 +4939,10 @@
         <v>77</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -4743,10 +4953,10 @@
         <v>77</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D77" s="26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -4754,13 +4964,13 @@
         <v>14</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -4768,13 +4978,13 @@
         <v>14</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C79" s="26" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -4785,10 +4995,10 @@
         <v>78</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D80" s="22" t="s">
-        <v>73</v>
+        <v>62</v>
+      </c>
+      <c r="D80" s="26" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -4799,10 +5009,10 @@
         <v>78</v>
       </c>
       <c r="C81" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -4813,10 +5023,10 @@
         <v>78</v>
       </c>
       <c r="C82" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D82" s="26" t="s">
-        <v>76</v>
+        <v>65</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -4827,10 +5037,10 @@
         <v>78</v>
       </c>
       <c r="C83" s="26" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -4838,13 +5048,13 @@
         <v>14</v>
       </c>
       <c r="B84" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C84" s="26" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -4852,13 +5062,13 @@
         <v>14</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C85" s="26" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -4869,10 +5079,10 @@
         <v>79</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -4883,10 +5093,10 @@
         <v>79</v>
       </c>
       <c r="C87" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -4897,10 +5107,10 @@
         <v>79</v>
       </c>
       <c r="C88" s="26" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D88" s="26" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -4911,10 +5121,10 @@
         <v>79</v>
       </c>
       <c r="C89" s="26" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -4922,13 +5132,13 @@
         <v>14</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C90" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
+      </c>
+      <c r="D90" s="26" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -4936,13 +5146,13 @@
         <v>14</v>
       </c>
       <c r="B91" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C91" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="D91" s="1">
-        <v>-15</v>
+        <v>70</v>
+      </c>
+      <c r="D91" s="26" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -4953,38 +5163,38 @@
         <v>80</v>
       </c>
       <c r="C92" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D92" s="1">
-        <v>15</v>
+        <v>82</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="26" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="B93" s="26" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="C93" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D93" s="26" t="s">
-        <v>27</v>
+        <v>83</v>
+      </c>
+      <c r="D93" s="1">
+        <v>-15</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="26" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D94" s="26" t="s">
-        <v>27</v>
+        <v>84</v>
+      </c>
+      <c r="D94" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -4992,13 +5202,13 @@
         <v>99</v>
       </c>
       <c r="B95" s="26" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C95" s="26" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -5006,7 +5216,7 @@
         <v>99</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C96" s="26" t="s">
         <v>45</v>
@@ -5015,122 +5225,126 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="26" t="s">
         <v>99</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C97" s="26" t="s">
         <v>46</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="26" t="s">
         <v>99</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D98" s="26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="26" t="s">
         <v>99</v>
       </c>
       <c r="B99" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C99" s="26" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="D99" s="26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="26" t="s">
         <v>99</v>
       </c>
       <c r="B100" s="26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C100" s="26" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="D100" s="26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="26" t="s">
         <v>99</v>
       </c>
       <c r="B101" s="26" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C101" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D101" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B102" s="26" t="s">
-        <v>48</v>
+      <c r="B102" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="C102" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="D102" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B103" s="26" t="s">
-        <v>48</v>
+      <c r="B103" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="C103" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D103" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="D103" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="26" t="s">
         <v>99</v>
       </c>
       <c r="B104" s="26" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C104" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D104" s="26"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="D104" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="26" t="s">
         <v>99</v>
       </c>
       <c r="B105" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C105" s="26" t="s">
         <v>28</v>
@@ -5139,12 +5353,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="26" t="s">
         <v>99</v>
       </c>
       <c r="B106" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C106" s="26" t="s">
         <v>29</v>
@@ -5153,38 +5367,38 @@
         <v>38</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="26" t="s">
         <v>99</v>
       </c>
       <c r="B107" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C107" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D107" s="22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="26" t="s">
         <v>99</v>
       </c>
       <c r="B108" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C108" s="26" t="s">
         <v>95</v>
       </c>
       <c r="D108" s="26"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="26" t="s">
         <v>99</v>
       </c>
       <c r="B109" s="26" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="C109" s="26" t="s">
         <v>28</v>
@@ -5193,12 +5407,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="26" t="s">
         <v>99</v>
       </c>
       <c r="B110" s="26" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="C110" s="26" t="s">
         <v>29</v>
@@ -5207,29 +5421,29 @@
         <v>38</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="26" t="s">
         <v>99</v>
       </c>
       <c r="B111" s="26" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="C111" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D111" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="26" t="s">
         <v>99</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C112" s="23" t="s">
-        <v>31</v>
+        <v>50</v>
+      </c>
+      <c r="C112" s="26" t="s">
+        <v>95</v>
       </c>
       <c r="D112" s="26"/>
     </row>
@@ -5240,10 +5454,12 @@
       <c r="B113" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C113" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D113" s="26"/>
+      <c r="C113" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" s="26" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="26" t="s">
@@ -5252,11 +5468,11 @@
       <c r="B114" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C114" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D114" s="1">
-        <v>10</v>
+      <c r="C114" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -5266,51 +5482,49 @@
       <c r="B115" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C115" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D115" s="26"/>
+      <c r="C115" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D115" s="22" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="26" t="s">
         <v>99</v>
       </c>
       <c r="B116" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C116" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D116" s="26" t="s">
-        <v>63</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C116" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D116" s="26"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="26" t="s">
         <v>99</v>
       </c>
       <c r="B117" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C117" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C117" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D117" s="26"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="26" t="s">
         <v>99</v>
       </c>
       <c r="B118" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C118" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D118" s="22" t="s">
-        <v>42</v>
+        <v>77</v>
+      </c>
+      <c r="C118" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D118" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -5318,10 +5532,10 @@
         <v>99</v>
       </c>
       <c r="B119" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D119" s="26"/>
     </row>
@@ -5332,10 +5546,12 @@
       <c r="B120" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C120" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D120" s="26"/>
+      <c r="C120" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120" s="26" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="26" t="s">
@@ -5344,11 +5560,11 @@
       <c r="B121" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C121" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D121" s="1">
-        <v>10</v>
+      <c r="C121" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -5358,51 +5574,49 @@
       <c r="B122" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C122" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D122" s="26"/>
+      <c r="C122" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D122" s="22" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="26" t="s">
         <v>99</v>
       </c>
       <c r="B123" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C123" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D123" s="26" t="s">
-        <v>27</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C123" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D123" s="26"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="26" t="s">
         <v>99</v>
       </c>
       <c r="B124" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C124" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D124" s="26" t="s">
-        <v>43</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C124" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D124" s="26"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="26" t="s">
         <v>99</v>
       </c>
       <c r="B125" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C125" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D125" s="26" t="s">
-        <v>63</v>
+        <v>78</v>
+      </c>
+      <c r="C125" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D125" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -5410,27 +5624,25 @@
         <v>99</v>
       </c>
       <c r="B126" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C126" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D126" s="26" t="s">
-        <v>38</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C126" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D126" s="26"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="26" t="s">
         <v>99</v>
       </c>
       <c r="B127" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C127" s="26" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D127" s="26" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -5438,13 +5650,13 @@
         <v>99</v>
       </c>
       <c r="B128" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C128" s="26" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D128" s="26" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -5455,10 +5667,10 @@
         <v>80</v>
       </c>
       <c r="C129" s="26" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D129" s="26" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -5469,10 +5681,10 @@
         <v>80</v>
       </c>
       <c r="C130" s="26" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D130" s="26" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -5480,13 +5692,13 @@
         <v>99</v>
       </c>
       <c r="B131" s="26" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C131" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="D131" s="26" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -5494,13 +5706,13 @@
         <v>99</v>
       </c>
       <c r="B132" s="26" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C132" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="D132" s="1">
-        <v>-15</v>
+        <v>66</v>
+      </c>
+      <c r="D132" s="26" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -5508,12 +5720,68 @@
         <v>99</v>
       </c>
       <c r="B133" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C133" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B134" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C134" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D134" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B135" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="C133" s="26" t="s">
+      <c r="C135" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B136" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C136" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D136" s="1">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B137" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C137" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="D133" s="1">
+      <c r="D137" s="1">
         <v>15</v>
       </c>
     </row>
